--- a/2. Descuentos/2. NOV_16_25.xlsx
+++ b/2. Descuentos/2. NOV_16_25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\2. Descuentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\AA GiHub\ForeverChic\2. Descuentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3C672-1560-4637-B48F-1E9722EBFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16308EF3-7C6A-47A7-8F5F-71431D0B50C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Descuentos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Valor</t>
   </si>
@@ -231,22 +231,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -275,6 +259,22 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -398,8 +398,8 @@
     <tableColumn id="2" xr3:uid="{F736B774-8E22-4323-BA5E-C22234709F81}" name="Profesional" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{30440FD2-523E-49B2-A615-DF46C3E311FE}" name="Tipo" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{68A15CDA-658D-4B90-91AA-75B669ED03FB}" name="Concepto" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{7D0FD0DE-C5B3-4592-803C-0D87BF7BDB74}" name="Valor" dataDxfId="0" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{CA093F04-1CF0-437B-AE68-772AB2DAA16D}" name="Observación" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7D0FD0DE-C5B3-4592-803C-0D87BF7BDB74}" name="Valor" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{CA093F04-1CF0-437B-AE68-772AB2DAA16D}" name="Observación" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,10 +436,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}" name="Tabla_Opciones" displayName="Tabla_Opciones" ref="C1:C4" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}" name="Tabla_Opciones" displayName="Tabla_Opciones" ref="C1:C4" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="C1:C4" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4E856376-E0CD-45C5-9126-2EF4C144CBA1}" name="Opciones" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4E856376-E0CD-45C5-9126-2EF4C144CBA1}" name="Opciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -745,7 +745,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -796,15 +796,47 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="3">
+        <f>+A2</f>
+        <v>45621</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:E4" si="0">+B2</f>
+        <v>Beto Garcia</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Descuento</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Intereses</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="3">
+        <f>+A3</f>
+        <v>45621</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Descuento</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Intereses</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
@@ -1789,19 +1821,19 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A200" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A200 B3:E3 C4:E4" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
       <formula1>45292</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E200" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E5:E200" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B200" xr:uid="{4C1B3225-30ED-4C88-B4C1-960670EAFF89}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B4:B200" xr:uid="{4C1B3225-30ED-4C88-B4C1-960670EAFF89}">
       <formula1>NombreProfesionales</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C200" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5:C200" xr:uid="{64F097FB-6F42-47C6-8F00-944A168D04A0}">
       <formula1>Opciones</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D200" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D5:D200" xr:uid="{8E9C73EC-78D1-455F-B921-8EB4642F40FE}">
       <formula1>INDIRECT($C2)</formula1>
     </dataValidation>
   </dataValidations>

--- a/2. Descuentos/2. NOV_16_25.xlsx
+++ b/2. Descuentos/2. NOV_16_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\AA GiHub\ForeverChic\2. Descuentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16308EF3-7C6A-47A7-8F5F-71431D0B50C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D78CBE-7DE2-4E2C-B940-3766C54F6FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
@@ -745,7 +745,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -792,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="4">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/2. Descuentos/2. NOV_16_25.xlsx
+++ b/2. Descuentos/2. NOV_16_25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\AA GiHub\ForeverChic\2. Descuentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\2. Descuentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D78CBE-7DE2-4E2C-B940-3766C54F6FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9406535-2AD7-4AB1-B242-46219602AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
+    <workbookView xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Descuentos" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="4">
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -813,8 +813,7 @@
         <v>Intereses</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -834,8 +833,7 @@
         <v>Intereses</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,10 +1819,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A200 B3:E3 C4:E4" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A200 C4:D4 B3:D3" xr:uid="{841F5E5D-75DB-4C60-A63B-98DAC6195AC7}">
       <formula1>45292</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E5:E200" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E200" xr:uid="{7CAE5F53-E5B4-46F3-BE98-48DFE8FA2C41}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B4:B200" xr:uid="{4C1B3225-30ED-4C88-B4C1-960670EAFF89}">
